--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H2">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I2">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J2">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.8434684031215</v>
+        <v>24.55401366666667</v>
       </c>
       <c r="N2">
-        <v>18.8434684031215</v>
+        <v>73.662041</v>
       </c>
       <c r="O2">
-        <v>0.2231603195813729</v>
+        <v>0.2501033965205259</v>
       </c>
       <c r="P2">
-        <v>0.2231603195813729</v>
+        <v>0.250103396520526</v>
       </c>
       <c r="Q2">
-        <v>163.1694786224817</v>
+        <v>252.3510681169374</v>
       </c>
       <c r="R2">
-        <v>163.1694786224817</v>
+        <v>2271.159613052437</v>
       </c>
       <c r="S2">
-        <v>0.07938856656022726</v>
+        <v>0.08931694159672407</v>
       </c>
       <c r="T2">
-        <v>0.07938856656022726</v>
+        <v>0.0893169415967241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H3">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I3">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J3">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.10655442563464</v>
+        <v>1.205204666666667</v>
       </c>
       <c r="N3">
-        <v>1.10655442563464</v>
+        <v>3.615614</v>
       </c>
       <c r="O3">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="P3">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="Q3">
-        <v>9.581882954641944</v>
+        <v>12.38635316659978</v>
       </c>
       <c r="R3">
-        <v>9.581882954641944</v>
+        <v>111.477178499398</v>
       </c>
       <c r="S3">
-        <v>0.004661974525743748</v>
+        <v>0.004384016246227794</v>
       </c>
       <c r="T3">
-        <v>0.004661974525743748</v>
+        <v>0.004384016246227796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H4">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I4">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J4">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.5003545949638</v>
+        <v>67.337282</v>
       </c>
       <c r="N4">
-        <v>59.5003545949638</v>
+        <v>202.011846</v>
       </c>
       <c r="O4">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837075</v>
       </c>
       <c r="P4">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837076</v>
       </c>
       <c r="Q4">
-        <v>515.22584003191</v>
+        <v>692.0512168590913</v>
       </c>
       <c r="R4">
-        <v>515.22584003191</v>
+        <v>6228.460951731821</v>
       </c>
       <c r="S4">
-        <v>0.2506782594406514</v>
+        <v>0.2449440716831131</v>
       </c>
       <c r="T4">
-        <v>0.2506782594406514</v>
+        <v>0.2449440716831132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H5">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I5">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J5">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.98877573070294</v>
+        <v>5.078950333333333</v>
       </c>
       <c r="N5">
-        <v>4.98877573070294</v>
+        <v>15.236851</v>
       </c>
       <c r="O5">
-        <v>0.05908130937290944</v>
+        <v>0.0517334048262004</v>
       </c>
       <c r="P5">
-        <v>0.05908130937290944</v>
+        <v>0.05173340482620041</v>
       </c>
       <c r="Q5">
-        <v>43.19883778977993</v>
+        <v>52.19833135751188</v>
       </c>
       <c r="R5">
-        <v>43.19883778977993</v>
+        <v>469.784982217607</v>
       </c>
       <c r="S5">
-        <v>0.02101798595025898</v>
+        <v>0.01847503697168786</v>
       </c>
       <c r="T5">
-        <v>0.02101798595025898</v>
+        <v>0.01847503697168786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H6">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I6">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J6">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.8434684031215</v>
+        <v>24.55401366666667</v>
       </c>
       <c r="N6">
-        <v>18.8434684031215</v>
+        <v>73.662041</v>
       </c>
       <c r="O6">
-        <v>0.2231603195813729</v>
+        <v>0.2501033965205259</v>
       </c>
       <c r="P6">
-        <v>0.2231603195813729</v>
+        <v>0.250103396520526</v>
       </c>
       <c r="Q6">
-        <v>32.06542724658084</v>
+        <v>48.79208265481311</v>
       </c>
       <c r="R6">
-        <v>32.06542724658084</v>
+        <v>439.128743893318</v>
       </c>
       <c r="S6">
-        <v>0.01560113035071356</v>
+        <v>0.01726943194408448</v>
       </c>
       <c r="T6">
-        <v>0.01560113035071356</v>
+        <v>0.01726943194408448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H7">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I7">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J7">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10655442563464</v>
+        <v>1.205204666666667</v>
       </c>
       <c r="N7">
-        <v>1.10655442563464</v>
+        <v>3.615614</v>
       </c>
       <c r="O7">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="P7">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="Q7">
-        <v>1.882994131998111</v>
+        <v>2.394901563152445</v>
       </c>
       <c r="R7">
-        <v>1.882994131998111</v>
+        <v>21.554114068372</v>
       </c>
       <c r="S7">
-        <v>0.0009161529854888724</v>
+        <v>0.0008476496043474963</v>
       </c>
       <c r="T7">
-        <v>0.0009161529854888724</v>
+        <v>0.0008476496043474964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H8">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I8">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J8">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.5003545949638</v>
+        <v>67.337282</v>
       </c>
       <c r="N8">
-        <v>59.5003545949638</v>
+        <v>202.011846</v>
       </c>
       <c r="O8">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837075</v>
       </c>
       <c r="P8">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837076</v>
       </c>
       <c r="Q8">
-        <v>101.2501653408202</v>
+        <v>133.8081127467453</v>
       </c>
       <c r="R8">
-        <v>101.2501653408202</v>
+        <v>1204.273014720708</v>
       </c>
       <c r="S8">
-        <v>0.04926231031840915</v>
+        <v>0.04735993978765635</v>
       </c>
       <c r="T8">
-        <v>0.04926231031840915</v>
+        <v>0.04735993978765636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H9">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I9">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J9">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.98877573070294</v>
+        <v>5.078950333333333</v>
       </c>
       <c r="N9">
-        <v>4.98877573070294</v>
+        <v>15.236851</v>
       </c>
       <c r="O9">
-        <v>0.05908130937290944</v>
+        <v>0.0517334048262004</v>
       </c>
       <c r="P9">
-        <v>0.05908130937290944</v>
+        <v>0.05173340482620041</v>
       </c>
       <c r="Q9">
-        <v>8.489266509761233</v>
+        <v>10.09254811974422</v>
       </c>
       <c r="R9">
-        <v>8.489266509761233</v>
+        <v>90.832933077698</v>
       </c>
       <c r="S9">
-        <v>0.004130372328497652</v>
+        <v>0.003572148664556491</v>
       </c>
       <c r="T9">
-        <v>0.004130372328497652</v>
+        <v>0.003572148664556492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H10">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I10">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J10">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.8434684031215</v>
+        <v>24.55401366666667</v>
       </c>
       <c r="N10">
-        <v>18.8434684031215</v>
+        <v>73.662041</v>
       </c>
       <c r="O10">
-        <v>0.2231603195813729</v>
+        <v>0.2501033965205259</v>
       </c>
       <c r="P10">
-        <v>0.2231603195813729</v>
+        <v>0.250103396520526</v>
       </c>
       <c r="Q10">
-        <v>253.252646030115</v>
+        <v>385.7420896471846</v>
       </c>
       <c r="R10">
-        <v>253.252646030115</v>
+        <v>3471.678806824661</v>
       </c>
       <c r="S10">
-        <v>0.1232176796521633</v>
+        <v>0.1365292564422613</v>
       </c>
       <c r="T10">
-        <v>0.1232176796521633</v>
+        <v>0.1365292564422613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H11">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I11">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J11">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.10655442563464</v>
+        <v>1.205204666666667</v>
       </c>
       <c r="N11">
-        <v>1.10655442563464</v>
+        <v>3.615614</v>
       </c>
       <c r="O11">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="P11">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="Q11">
-        <v>14.87188187827906</v>
+        <v>18.93369340278822</v>
       </c>
       <c r="R11">
-        <v>14.87188187827906</v>
+        <v>170.403240625094</v>
       </c>
       <c r="S11">
-        <v>0.007235773469015191</v>
+        <v>0.006701376778335941</v>
       </c>
       <c r="T11">
-        <v>0.007235773469015191</v>
+        <v>0.006701376778335942</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H12">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I12">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J12">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5003545949638</v>
+        <v>67.337282</v>
       </c>
       <c r="N12">
-        <v>59.5003545949638</v>
+        <v>202.011846</v>
       </c>
       <c r="O12">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837075</v>
       </c>
       <c r="P12">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837076</v>
       </c>
       <c r="Q12">
-        <v>799.6734952684462</v>
+        <v>1057.864682428841</v>
       </c>
       <c r="R12">
-        <v>799.6734952684462</v>
+        <v>9520.782141859565</v>
       </c>
       <c r="S12">
-        <v>0.3890735757785376</v>
+        <v>0.3744198063546541</v>
       </c>
       <c r="T12">
-        <v>0.3890735757785376</v>
+        <v>0.3744198063546542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H13">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I13">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J13">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.98877573070294</v>
+        <v>5.078950333333333</v>
       </c>
       <c r="N13">
-        <v>4.98877573070294</v>
+        <v>15.236851</v>
       </c>
       <c r="O13">
-        <v>0.05908130937290944</v>
+        <v>0.0517334048262004</v>
       </c>
       <c r="P13">
-        <v>0.05908130937290944</v>
+        <v>0.05173340482620041</v>
       </c>
       <c r="Q13">
-        <v>67.04820085255903</v>
+        <v>79.79000669263012</v>
       </c>
       <c r="R13">
-        <v>67.04820085255903</v>
+        <v>718.110060233671</v>
       </c>
       <c r="S13">
-        <v>0.03262166798021181</v>
+        <v>0.0282408131693164</v>
       </c>
       <c r="T13">
-        <v>0.03262166798021181</v>
+        <v>0.02824081316931641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H14">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I14">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J14">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.8434684031215</v>
+        <v>24.55401366666667</v>
       </c>
       <c r="N14">
-        <v>18.8434684031215</v>
+        <v>73.662041</v>
       </c>
       <c r="O14">
-        <v>0.2231603195813729</v>
+        <v>0.2501033965205259</v>
       </c>
       <c r="P14">
-        <v>0.2231603195813729</v>
+        <v>0.250103396520526</v>
       </c>
       <c r="Q14">
-        <v>10.17991840581557</v>
+        <v>19.74284293612144</v>
       </c>
       <c r="R14">
-        <v>10.17991840581557</v>
+        <v>177.685586425093</v>
       </c>
       <c r="S14">
-        <v>0.004952943018268745</v>
+        <v>0.006987766537456161</v>
       </c>
       <c r="T14">
-        <v>0.004952943018268745</v>
+        <v>0.006987766537456163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H15">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I15">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J15">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.10655442563464</v>
+        <v>1.205204666666667</v>
       </c>
       <c r="N15">
-        <v>1.10655442563464</v>
+        <v>3.615614</v>
       </c>
       <c r="O15">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="P15">
-        <v>0.01310475513191097</v>
+        <v>0.01227602886956614</v>
       </c>
       <c r="Q15">
-        <v>0.5978004432925267</v>
+        <v>0.9690540521357778</v>
       </c>
       <c r="R15">
-        <v>0.5978004432925267</v>
+        <v>8.721486469222</v>
       </c>
       <c r="S15">
-        <v>0.0002908541516631604</v>
+        <v>0.0003429862406549123</v>
       </c>
       <c r="T15">
-        <v>0.0002908541516631604</v>
+        <v>0.0003429862406549124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H16">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I16">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J16">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.5003545949638</v>
+        <v>67.337282</v>
       </c>
       <c r="N16">
-        <v>59.5003545949638</v>
+        <v>202.011846</v>
       </c>
       <c r="O16">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837075</v>
       </c>
       <c r="P16">
-        <v>0.7046536159138067</v>
+        <v>0.6858871697837076</v>
       </c>
       <c r="Q16">
-        <v>32.14422854305776</v>
+        <v>54.14305784459533</v>
       </c>
       <c r="R16">
-        <v>32.14422854305776</v>
+        <v>487.287520601358</v>
       </c>
       <c r="S16">
-        <v>0.01563947037620856</v>
+        <v>0.01916335195828401</v>
       </c>
       <c r="T16">
-        <v>0.01563947037620856</v>
+        <v>0.01916335195828402</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H17">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I17">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J17">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.98877573070294</v>
+        <v>5.078950333333333</v>
       </c>
       <c r="N17">
-        <v>4.98877573070294</v>
+        <v>15.236851</v>
       </c>
       <c r="O17">
-        <v>0.05908130937290944</v>
+        <v>0.0517334048262004</v>
       </c>
       <c r="P17">
-        <v>0.05908130937290944</v>
+        <v>0.05173340482620041</v>
       </c>
       <c r="Q17">
-        <v>2.695115824592892</v>
+        <v>4.083768954135889</v>
       </c>
       <c r="R17">
-        <v>2.695115824592892</v>
+        <v>36.753920587223</v>
       </c>
       <c r="S17">
-        <v>0.001311283113940983</v>
+        <v>0.001445406020639659</v>
       </c>
       <c r="T17">
-        <v>0.001311283113940983</v>
+        <v>0.00144540602063966</v>
       </c>
     </row>
   </sheetData>
